--- a/maser/data/support/cdf/cdfconverter_example.xlsx
+++ b/maser/data/support/cdf/cdfconverter_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="580" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-27360" yWindow="-80" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="header" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="115">
   <si>
     <t>CDF NAME</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Dimension Variances</t>
   </si>
   <si>
-    <t>EPOCH</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -369,6 +366,9 @@
   </si>
   <si>
     <t>-1.0e31</t>
+  </si>
+  <si>
+    <t>DEPEND_0</t>
   </si>
 </sst>
 </file>
@@ -468,8 +468,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="273">
+  <cellStyleXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -800,7 +806,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="273">
+  <cellStyles count="279">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -937,6 +943,9 @@
     <cellStyle name="Lien hypertexte" xfId="267" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="269" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -1073,6 +1082,9 @@
     <cellStyle name="Lien hypertexte visité" xfId="268" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="270" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1434,7 +1446,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1498,7 +1510,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1512,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1526,7 +1538,7 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1540,7 +1552,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1554,7 +1566,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1607,7 +1619,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1621,7 +1633,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1635,7 +1647,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1649,7 +1661,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1663,7 +1675,7 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1677,7 +1689,7 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1691,7 +1703,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1705,7 +1717,7 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1741,7 +1753,7 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1755,7 +1767,7 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1773,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1815,10 +1827,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1827,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1835,10 +1847,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -1850,10 +1862,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1861,10 +1873,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1873,13 +1885,13 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1887,7 +1899,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>30</v>
@@ -1902,10 +1914,10 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1924,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D685"/>
+  <dimension ref="A1:D686"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1954,234 +1966,234 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="14" t="s">
-        <v>38</v>
+      <c r="A18" t="s">
+        <v>58</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>30</v>
@@ -2190,312 +2202,323 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="25">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="25">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="25">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="25">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="25">
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="16" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="D27" s="25" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="14" customFormat="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>68</v>
+        <v>80</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="14" customFormat="1">
       <c r="A30" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>44</v>
+        <v>81</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="25">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>95</v>
+      <c r="D32" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="25">
-        <v>0</v>
+      <c r="D33" s="25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>95</v>
+      <c r="D34" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>114</v>
+      <c r="D35" s="25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>86</v>
+      <c r="D36" s="26" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>68</v>
+        <v>81</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="16" t="s">
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="14" customFormat="1">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="13"/>
+      <c r="D40" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="14" customFormat="1">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="14"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="13"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="14"/>
@@ -2540,13 +2563,13 @@
       <c r="A73" s="14"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="13"/>
+      <c r="A74" s="14"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="14"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="13"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="14"/>
@@ -2594,16 +2617,16 @@
       <c r="A90" s="14"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="16"/>
+      <c r="A91" s="14"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="13"/>
+      <c r="A92" s="16"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="4"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="13"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4"/>
@@ -2654,130 +2677,127 @@
       <c r="A109" s="4"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="13"/>
+      <c r="A110" s="4"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="4"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="13"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:1">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:1">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:1">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:1">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:1">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:1">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:1">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:1">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:1">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:1">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:1">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:1">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:1">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:1">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:1">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="13"/>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="15"/>
-    </row>
-    <row r="130" spans="1:1">
+    <row r="128" spans="1:1">
+      <c r="A128" s="4"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="13"/>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="15"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:4">
       <c r="A131" s="15"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:4">
       <c r="A132" s="15"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:4">
       <c r="A133" s="15"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:4">
       <c r="A134" s="15"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:4">
       <c r="A135" s="15"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:4">
       <c r="A136" s="15"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:4">
       <c r="A137" s="15"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:4">
       <c r="A138" s="15"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:4">
       <c r="A139" s="15"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:4">
       <c r="A140" s="15"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:4">
       <c r="A141" s="15"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:4">
       <c r="A142" s="15"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:4">
       <c r="A143" s="15"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:4">
       <c r="A144" s="15"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="15"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="12"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="18"/>
+      <c r="A146" s="15"/>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="20"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="19"/>
+      <c r="A147" s="12"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="18"/>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="20"/>
@@ -2876,16 +2896,16 @@
       <c r="D163" s="19"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="12"/>
-      <c r="B164" s="17"/>
-      <c r="C164" s="17"/>
-      <c r="D164" s="18"/>
+      <c r="A164" s="20"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="19"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="15"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="19"/>
+      <c r="A165" s="12"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="18"/>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="15"/>
@@ -2984,16 +3004,16 @@
       <c r="D181" s="19"/>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="11"/>
-      <c r="B182" s="17"/>
-      <c r="C182" s="17"/>
-      <c r="D182" s="18"/>
+      <c r="A182" s="15"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="19"/>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="16"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="19"/>
+      <c r="A183" s="11"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="18"/>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="16"/>
@@ -3092,16 +3112,16 @@
       <c r="D199" s="19"/>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="11"/>
-      <c r="B200" s="17"/>
-      <c r="C200" s="17"/>
-      <c r="D200" s="18"/>
+      <c r="A200" s="16"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="19"/>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="16"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="19"/>
+      <c r="A201" s="11"/>
+      <c r="B201" s="17"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="18"/>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="16"/>
@@ -3200,16 +3220,16 @@
       <c r="D217" s="19"/>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="11"/>
-      <c r="B218" s="17"/>
-      <c r="C218" s="17"/>
-      <c r="D218" s="18"/>
+      <c r="A218" s="16"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="19"/>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="14"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="19"/>
+      <c r="A219" s="11"/>
+      <c r="B219" s="17"/>
+      <c r="C219" s="17"/>
+      <c r="D219" s="18"/>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="14"/>
@@ -3308,16 +3328,16 @@
       <c r="D235" s="19"/>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="11"/>
-      <c r="B236" s="17"/>
-      <c r="C236" s="17"/>
-      <c r="D236" s="18"/>
+      <c r="A236" s="14"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="19"/>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="14"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="19"/>
+      <c r="A237" s="11"/>
+      <c r="B237" s="17"/>
+      <c r="C237" s="17"/>
+      <c r="D237" s="18"/>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="14"/>
@@ -3416,178 +3436,179 @@
       <c r="D253" s="19"/>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="11"/>
-      <c r="B254" s="17"/>
-      <c r="C254" s="17"/>
-      <c r="D254" s="18"/>
+      <c r="A254" s="14"/>
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="19"/>
     </row>
     <row r="255" spans="1:4">
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="19"/>
+      <c r="A255" s="11"/>
+      <c r="B255" s="17"/>
+      <c r="C255" s="17"/>
+      <c r="D255" s="18"/>
     </row>
     <row r="256" spans="1:4">
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="19"/>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="2:4">
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="19"/>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="2:4">
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="19"/>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="2:4">
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="19"/>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="2:4">
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="19"/>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="2:4">
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="19"/>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="2:4">
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="19"/>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="2:4">
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="19"/>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="2:4">
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="19"/>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="2:4">
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="19"/>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="2:4">
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="19"/>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="2:4">
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="19"/>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="2:4">
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="19"/>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="2:4">
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="19"/>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="2:4">
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="19"/>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="2:4">
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="19"/>
     </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="11"/>
-      <c r="B272" s="17"/>
-      <c r="C272" s="17"/>
-      <c r="D272" s="18"/>
-    </row>
-    <row r="273" spans="2:4">
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="19"/>
-    </row>
-    <row r="274" spans="2:4">
+    <row r="272" spans="2:4">
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="19"/>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="11"/>
+      <c r="B273" s="17"/>
+      <c r="C273" s="17"/>
+      <c r="D273" s="18"/>
+    </row>
+    <row r="274" spans="1:4">
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="19"/>
     </row>
-    <row r="275" spans="2:4">
+    <row r="275" spans="1:4">
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="19"/>
     </row>
-    <row r="276" spans="2:4">
+    <row r="276" spans="1:4">
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="19"/>
     </row>
-    <row r="277" spans="2:4">
+    <row r="277" spans="1:4">
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="19"/>
     </row>
-    <row r="278" spans="2:4">
+    <row r="278" spans="1:4">
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="19"/>
     </row>
-    <row r="279" spans="2:4">
+    <row r="279" spans="1:4">
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="19"/>
     </row>
-    <row r="280" spans="2:4">
+    <row r="280" spans="1:4">
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="19"/>
     </row>
-    <row r="281" spans="2:4">
+    <row r="281" spans="1:4">
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="19"/>
     </row>
-    <row r="282" spans="2:4">
+    <row r="282" spans="1:4">
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="19"/>
     </row>
-    <row r="283" spans="2:4">
+    <row r="283" spans="1:4">
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="19"/>
     </row>
-    <row r="284" spans="2:4">
+    <row r="284" spans="1:4">
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="19"/>
     </row>
-    <row r="285" spans="2:4">
+    <row r="285" spans="1:4">
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="19"/>
     </row>
-    <row r="286" spans="2:4">
+    <row r="286" spans="1:4">
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="19"/>
     </row>
-    <row r="287" spans="2:4">
+    <row r="287" spans="1:4">
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="19"/>
     </row>
-    <row r="288" spans="2:4">
+    <row r="288" spans="1:4">
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="19"/>
@@ -3598,15 +3619,15 @@
       <c r="D289" s="19"/>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="11"/>
-      <c r="B290" s="17"/>
-      <c r="C290" s="17"/>
-      <c r="D290" s="18"/>
+      <c r="B290" s="2"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="19"/>
     </row>
     <row r="291" spans="1:4">
-      <c r="B291" s="2"/>
-      <c r="C291" s="2"/>
-      <c r="D291" s="19"/>
+      <c r="A291" s="11"/>
+      <c r="B291" s="17"/>
+      <c r="C291" s="17"/>
+      <c r="D291" s="18"/>
     </row>
     <row r="292" spans="1:4">
       <c r="B292" s="2"/>
@@ -3689,15 +3710,15 @@
       <c r="D307" s="19"/>
     </row>
     <row r="308" spans="1:4">
-      <c r="A308" s="11"/>
-      <c r="B308" s="17"/>
-      <c r="C308" s="17"/>
-      <c r="D308" s="18"/>
+      <c r="B308" s="2"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="19"/>
     </row>
     <row r="309" spans="1:4">
-      <c r="B309" s="2"/>
-      <c r="C309" s="2"/>
-      <c r="D309" s="19"/>
+      <c r="A309" s="11"/>
+      <c r="B309" s="17"/>
+      <c r="C309" s="17"/>
+      <c r="D309" s="18"/>
     </row>
     <row r="310" spans="1:4">
       <c r="B310" s="2"/>
@@ -3780,15 +3801,15 @@
       <c r="D325" s="19"/>
     </row>
     <row r="326" spans="1:4">
-      <c r="A326" s="11"/>
-      <c r="B326" s="17"/>
-      <c r="C326" s="17"/>
-      <c r="D326" s="18"/>
+      <c r="B326" s="2"/>
+      <c r="C326" s="2"/>
+      <c r="D326" s="19"/>
     </row>
     <row r="327" spans="1:4">
-      <c r="B327" s="2"/>
-      <c r="C327" s="2"/>
-      <c r="D327" s="19"/>
+      <c r="A327" s="11"/>
+      <c r="B327" s="17"/>
+      <c r="C327" s="17"/>
+      <c r="D327" s="18"/>
     </row>
     <row r="328" spans="1:4">
       <c r="B328" s="2"/>
@@ -3871,14 +3892,15 @@
       <c r="D343" s="19"/>
     </row>
     <row r="344" spans="1:4">
-      <c r="A344" s="11"/>
-      <c r="B344" s="17"/>
-      <c r="C344" s="17"/>
-      <c r="D344" s="18"/>
+      <c r="B344" s="2"/>
+      <c r="C344" s="2"/>
+      <c r="D344" s="19"/>
     </row>
     <row r="345" spans="1:4">
-      <c r="B345" s="2"/>
-      <c r="C345" s="2"/>
+      <c r="A345" s="11"/>
+      <c r="B345" s="17"/>
+      <c r="C345" s="17"/>
+      <c r="D345" s="18"/>
     </row>
     <row r="346" spans="1:4">
       <c r="B346" s="2"/>
@@ -3945,14 +3967,14 @@
       <c r="C361" s="2"/>
     </row>
     <row r="362" spans="1:4">
-      <c r="A362" s="11"/>
-      <c r="B362" s="17"/>
-      <c r="C362" s="17"/>
-      <c r="D362" s="18"/>
+      <c r="B362" s="2"/>
+      <c r="C362" s="2"/>
     </row>
     <row r="363" spans="1:4">
-      <c r="B363" s="2"/>
-      <c r="C363" s="2"/>
+      <c r="A363" s="11"/>
+      <c r="B363" s="17"/>
+      <c r="C363" s="17"/>
+      <c r="D363" s="18"/>
     </row>
     <row r="364" spans="1:4">
       <c r="B364" s="2"/>
@@ -4019,14 +4041,14 @@
       <c r="C379" s="2"/>
     </row>
     <row r="380" spans="1:4">
-      <c r="A380" s="11"/>
-      <c r="B380" s="17"/>
-      <c r="C380" s="17"/>
-      <c r="D380" s="18"/>
+      <c r="B380" s="2"/>
+      <c r="C380" s="2"/>
     </row>
     <row r="381" spans="1:4">
-      <c r="B381" s="2"/>
-      <c r="C381" s="2"/>
+      <c r="A381" s="11"/>
+      <c r="B381" s="17"/>
+      <c r="C381" s="17"/>
+      <c r="D381" s="18"/>
     </row>
     <row r="382" spans="1:4">
       <c r="B382" s="2"/>
@@ -4093,146 +4115,146 @@
       <c r="C397" s="2"/>
     </row>
     <row r="398" spans="1:4">
-      <c r="A398" s="11"/>
-      <c r="B398" s="17"/>
-      <c r="C398" s="17"/>
-      <c r="D398" s="18"/>
+      <c r="B398" s="2"/>
+      <c r="C398" s="2"/>
     </row>
     <row r="399" spans="1:4">
-      <c r="B399" s="2"/>
-      <c r="C399" s="2"/>
+      <c r="A399" s="11"/>
+      <c r="B399" s="17"/>
+      <c r="C399" s="17"/>
+      <c r="D399" s="18"/>
     </row>
     <row r="400" spans="1:4">
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="2:3">
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="2:3">
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="2:3">
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="2:3">
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="2:3">
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="2:3">
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="2:3">
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="2:3">
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="2:3">
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="2:3">
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="2:3">
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="2:3">
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="2:3">
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="2:3">
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="2:3">
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
     </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="22"/>
-      <c r="B416" s="17"/>
-      <c r="C416" s="17"/>
-      <c r="D416" s="18"/>
-    </row>
-    <row r="417" spans="2:3">
-      <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
-    </row>
-    <row r="418" spans="2:3">
+    <row r="416" spans="2:3">
+      <c r="B416" s="2"/>
+      <c r="C416" s="2"/>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="22"/>
+      <c r="B417" s="17"/>
+      <c r="C417" s="17"/>
+      <c r="D417" s="18"/>
+    </row>
+    <row r="418" spans="1:4">
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
     </row>
-    <row r="419" spans="2:3">
+    <row r="419" spans="1:4">
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
     </row>
-    <row r="420" spans="2:3">
+    <row r="420" spans="1:4">
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
     </row>
-    <row r="421" spans="2:3">
+    <row r="421" spans="1:4">
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
     </row>
-    <row r="422" spans="2:3">
+    <row r="422" spans="1:4">
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
     </row>
-    <row r="423" spans="2:3">
+    <row r="423" spans="1:4">
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
     </row>
-    <row r="424" spans="2:3">
+    <row r="424" spans="1:4">
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
     </row>
-    <row r="425" spans="2:3">
+    <row r="425" spans="1:4">
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
     </row>
-    <row r="426" spans="2:3">
+    <row r="426" spans="1:4">
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
     </row>
-    <row r="427" spans="2:3">
+    <row r="427" spans="1:4">
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
     </row>
-    <row r="428" spans="2:3">
+    <row r="428" spans="1:4">
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
     </row>
-    <row r="429" spans="2:3">
+    <row r="429" spans="1:4">
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
     </row>
-    <row r="430" spans="2:3">
+    <row r="430" spans="1:4">
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
     </row>
-    <row r="431" spans="2:3">
+    <row r="431" spans="1:4">
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
     </row>
-    <row r="432" spans="2:3">
+    <row r="432" spans="1:4">
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
     </row>
@@ -4241,14 +4263,14 @@
       <c r="C433" s="2"/>
     </row>
     <row r="434" spans="1:4">
-      <c r="A434" s="11"/>
-      <c r="B434" s="17"/>
-      <c r="C434" s="17"/>
-      <c r="D434" s="18"/>
+      <c r="B434" s="2"/>
+      <c r="C434" s="2"/>
     </row>
     <row r="435" spans="1:4">
-      <c r="B435" s="2"/>
-      <c r="C435" s="2"/>
+      <c r="A435" s="11"/>
+      <c r="B435" s="17"/>
+      <c r="C435" s="17"/>
+      <c r="D435" s="18"/>
     </row>
     <row r="436" spans="1:4">
       <c r="B436" s="2"/>
@@ -4315,13 +4337,13 @@
       <c r="C451" s="2"/>
     </row>
     <row r="452" spans="1:3">
-      <c r="A452" s="11"/>
-      <c r="B452" s="17"/>
-      <c r="C452" s="17"/>
+      <c r="B452" s="2"/>
+      <c r="C452" s="2"/>
     </row>
     <row r="453" spans="1:3">
-      <c r="B453" s="2"/>
-      <c r="C453" s="2"/>
+      <c r="A453" s="11"/>
+      <c r="B453" s="17"/>
+      <c r="C453" s="17"/>
     </row>
     <row r="454" spans="1:3">
       <c r="B454" s="2"/>
@@ -4388,14 +4410,14 @@
       <c r="C469" s="2"/>
     </row>
     <row r="470" spans="1:4">
-      <c r="A470" s="12"/>
-      <c r="B470" s="17"/>
-      <c r="C470" s="17"/>
-      <c r="D470" s="18"/>
+      <c r="B470" s="2"/>
+      <c r="C470" s="2"/>
     </row>
     <row r="471" spans="1:4">
-      <c r="B471" s="2"/>
-      <c r="C471" s="2"/>
+      <c r="A471" s="12"/>
+      <c r="B471" s="17"/>
+      <c r="C471" s="17"/>
+      <c r="D471" s="18"/>
     </row>
     <row r="472" spans="1:4">
       <c r="B472" s="2"/>
@@ -4462,14 +4484,14 @@
       <c r="C487" s="2"/>
     </row>
     <row r="488" spans="1:4">
-      <c r="A488" s="22"/>
-      <c r="B488" s="17"/>
-      <c r="C488" s="17"/>
-      <c r="D488" s="18"/>
+      <c r="B488" s="2"/>
+      <c r="C488" s="2"/>
     </row>
     <row r="489" spans="1:4">
-      <c r="B489" s="2"/>
-      <c r="C489" s="2"/>
+      <c r="A489" s="22"/>
+      <c r="B489" s="17"/>
+      <c r="C489" s="17"/>
+      <c r="D489" s="18"/>
     </row>
     <row r="490" spans="1:4">
       <c r="B490" s="2"/>
@@ -4536,14 +4558,14 @@
       <c r="C505" s="2"/>
     </row>
     <row r="506" spans="1:4">
-      <c r="A506" s="22"/>
-      <c r="B506" s="17"/>
-      <c r="C506" s="17"/>
-      <c r="D506" s="18"/>
+      <c r="B506" s="2"/>
+      <c r="C506" s="2"/>
     </row>
     <row r="507" spans="1:4">
-      <c r="B507" s="2"/>
-      <c r="C507" s="2"/>
+      <c r="A507" s="22"/>
+      <c r="B507" s="17"/>
+      <c r="C507" s="17"/>
+      <c r="D507" s="18"/>
     </row>
     <row r="508" spans="1:4">
       <c r="B508" s="2"/>
@@ -4610,14 +4632,14 @@
       <c r="C523" s="2"/>
     </row>
     <row r="524" spans="1:4">
-      <c r="A524" s="24"/>
-      <c r="B524" s="17"/>
-      <c r="C524" s="17"/>
-      <c r="D524" s="18"/>
+      <c r="B524" s="2"/>
+      <c r="C524" s="2"/>
     </row>
     <row r="525" spans="1:4">
-      <c r="B525" s="2"/>
-      <c r="C525" s="2"/>
+      <c r="A525" s="24"/>
+      <c r="B525" s="17"/>
+      <c r="C525" s="17"/>
+      <c r="D525" s="18"/>
     </row>
     <row r="526" spans="1:4">
       <c r="B526" s="2"/>
@@ -4684,146 +4706,146 @@
       <c r="C541" s="2"/>
     </row>
     <row r="542" spans="1:4">
-      <c r="A542" s="22"/>
-      <c r="B542" s="17"/>
-      <c r="C542" s="17"/>
-      <c r="D542" s="18"/>
+      <c r="B542" s="2"/>
+      <c r="C542" s="2"/>
     </row>
     <row r="543" spans="1:4">
-      <c r="B543" s="2"/>
-      <c r="C543" s="2"/>
+      <c r="A543" s="22"/>
+      <c r="B543" s="17"/>
+      <c r="C543" s="17"/>
+      <c r="D543" s="18"/>
     </row>
     <row r="544" spans="1:4">
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="2:3">
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="2:3">
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="2:3">
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="2:3">
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="2:3">
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="2:3">
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="2:3">
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="2:3">
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="2:3">
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="2:3">
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="2:3">
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="2:3">
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="2:3">
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="2:3">
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="2:3">
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
     </row>
-    <row r="560" spans="1:4">
-      <c r="A560" s="22"/>
-      <c r="B560" s="17"/>
-      <c r="C560" s="17"/>
-      <c r="D560" s="18"/>
-    </row>
-    <row r="561" spans="2:3">
-      <c r="B561" s="2"/>
-      <c r="C561" s="2"/>
-    </row>
-    <row r="562" spans="2:3">
+    <row r="560" spans="2:3">
+      <c r="B560" s="2"/>
+      <c r="C560" s="2"/>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" s="22"/>
+      <c r="B561" s="17"/>
+      <c r="C561" s="17"/>
+      <c r="D561" s="18"/>
+    </row>
+    <row r="562" spans="1:4">
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
     </row>
-    <row r="563" spans="2:3">
+    <row r="563" spans="1:4">
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
     </row>
-    <row r="564" spans="2:3">
+    <row r="564" spans="1:4">
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
     </row>
-    <row r="565" spans="2:3">
+    <row r="565" spans="1:4">
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
     </row>
-    <row r="566" spans="2:3">
+    <row r="566" spans="1:4">
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
     </row>
-    <row r="567" spans="2:3">
+    <row r="567" spans="1:4">
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
     </row>
-    <row r="568" spans="2:3">
+    <row r="568" spans="1:4">
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
     </row>
-    <row r="569" spans="2:3">
+    <row r="569" spans="1:4">
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
     </row>
-    <row r="570" spans="2:3">
+    <row r="570" spans="1:4">
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
     </row>
-    <row r="571" spans="2:3">
+    <row r="571" spans="1:4">
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
     </row>
-    <row r="572" spans="2:3">
+    <row r="572" spans="1:4">
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
     </row>
-    <row r="573" spans="2:3">
+    <row r="573" spans="1:4">
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
     </row>
-    <row r="574" spans="2:3">
+    <row r="574" spans="1:4">
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
     </row>
-    <row r="575" spans="2:3">
+    <row r="575" spans="1:4">
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
     </row>
-    <row r="576" spans="2:3">
+    <row r="576" spans="1:4">
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
     </row>
@@ -4832,14 +4854,14 @@
       <c r="C577" s="2"/>
     </row>
     <row r="578" spans="1:4">
-      <c r="A578" s="21"/>
-      <c r="B578" s="17"/>
-      <c r="C578" s="17"/>
-      <c r="D578" s="18"/>
+      <c r="B578" s="2"/>
+      <c r="C578" s="2"/>
     </row>
     <row r="579" spans="1:4">
-      <c r="B579" s="2"/>
-      <c r="C579" s="2"/>
+      <c r="A579" s="21"/>
+      <c r="B579" s="17"/>
+      <c r="C579" s="17"/>
+      <c r="D579" s="18"/>
     </row>
     <row r="580" spans="1:4">
       <c r="B580" s="2"/>
@@ -4906,14 +4928,14 @@
       <c r="C595" s="2"/>
     </row>
     <row r="596" spans="1:4">
-      <c r="A596" s="23"/>
-      <c r="B596" s="17"/>
-      <c r="C596" s="17"/>
-      <c r="D596" s="18"/>
+      <c r="B596" s="2"/>
+      <c r="C596" s="2"/>
     </row>
     <row r="597" spans="1:4">
-      <c r="B597" s="2"/>
-      <c r="C597" s="2"/>
+      <c r="A597" s="23"/>
+      <c r="B597" s="17"/>
+      <c r="C597" s="17"/>
+      <c r="D597" s="18"/>
     </row>
     <row r="598" spans="1:4">
       <c r="B598" s="2"/>
@@ -4980,14 +5002,14 @@
       <c r="C613" s="2"/>
     </row>
     <row r="614" spans="1:4">
-      <c r="A614" s="23"/>
-      <c r="B614" s="17"/>
-      <c r="C614" s="17"/>
-      <c r="D614" s="18"/>
+      <c r="B614" s="2"/>
+      <c r="C614" s="2"/>
     </row>
     <row r="615" spans="1:4">
-      <c r="B615" s="2"/>
-      <c r="C615" s="2"/>
+      <c r="A615" s="23"/>
+      <c r="B615" s="17"/>
+      <c r="C615" s="17"/>
+      <c r="D615" s="18"/>
     </row>
     <row r="616" spans="1:4">
       <c r="B616" s="2"/>
@@ -5054,14 +5076,14 @@
       <c r="C631" s="2"/>
     </row>
     <row r="632" spans="1:4">
-      <c r="A632" s="23"/>
-      <c r="B632" s="17"/>
-      <c r="C632" s="17"/>
-      <c r="D632" s="18"/>
+      <c r="B632" s="2"/>
+      <c r="C632" s="2"/>
     </row>
     <row r="633" spans="1:4">
-      <c r="B633" s="2"/>
-      <c r="C633" s="2"/>
+      <c r="A633" s="23"/>
+      <c r="B633" s="17"/>
+      <c r="C633" s="17"/>
+      <c r="D633" s="18"/>
     </row>
     <row r="634" spans="1:4">
       <c r="B634" s="2"/>
@@ -5128,14 +5150,14 @@
       <c r="C649" s="2"/>
     </row>
     <row r="650" spans="1:4">
-      <c r="A650" s="22"/>
-      <c r="B650" s="17"/>
-      <c r="C650" s="17"/>
-      <c r="D650" s="18"/>
+      <c r="B650" s="2"/>
+      <c r="C650" s="2"/>
     </row>
     <row r="651" spans="1:4">
-      <c r="B651" s="2"/>
-      <c r="C651" s="2"/>
+      <c r="A651" s="22"/>
+      <c r="B651" s="17"/>
+      <c r="C651" s="17"/>
+      <c r="D651" s="18"/>
     </row>
     <row r="652" spans="1:4">
       <c r="B652" s="2"/>
@@ -5202,14 +5224,14 @@
       <c r="C667" s="2"/>
     </row>
     <row r="668" spans="1:4">
-      <c r="A668" s="21"/>
-      <c r="B668" s="17"/>
-      <c r="C668" s="17"/>
-      <c r="D668" s="18"/>
+      <c r="B668" s="2"/>
+      <c r="C668" s="2"/>
     </row>
     <row r="669" spans="1:4">
-      <c r="B669" s="2"/>
-      <c r="C669" s="2"/>
+      <c r="A669" s="21"/>
+      <c r="B669" s="17"/>
+      <c r="C669" s="17"/>
+      <c r="D669" s="18"/>
     </row>
     <row r="670" spans="1:4">
       <c r="B670" s="2"/>
@@ -5274,6 +5296,10 @@
     <row r="685" spans="2:3">
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
+    </row>
+    <row r="686" spans="2:3">
+      <c r="B686" s="2"/>
+      <c r="C686" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -5306,36 +5332,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -5369,7 +5395,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>7</v>
@@ -5377,24 +5403,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
